--- a/biology/Zoologie/Colombe_inca/Colombe_inca.xlsx
+++ b/biology/Zoologie/Colombe_inca/Colombe_inca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Columbina inca
 La Colombe inca (Columbina inca, anciennement Scardafella inca) est une espèce de petits oiseaux américains de la famille des Columbidae.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que son nom évoque l'Empire Inca, cette espèce ne vit pas sur les terres que celui-ci occupait.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend de la partie sud-ouest des États-Unis et du Mexique jusqu'à Costa Rica dans l'Amérique centrale.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les milieux peu boisés, y compris les agglomérations.
 </t>
@@ -605,7 +623,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colombes inca atteignent une longueur comprise entre 16,5 et 20 cm et pèsent de 47 à 48 g. Cet oiseau présente un plumage gris brunâtre maillé, des rémiges primaires marron et une longue queue aux rectrices externes blanches.
 Le mâle possède un chant puissant pouvant se traduire par cou-ou.
